--- a/data/material/texts.xlsx
+++ b/data/material/texts.xlsx
@@ -5,24 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\21_404\00_finalMaterial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\21_404\PROJECT\404-nature-not-found\data\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709F9281-20CE-4D68-A492-7738C8673651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93682B6E-09D8-469C-9C30-7C222401A4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
     <sheet name="Begriffe" sheetId="4" r:id="rId2"/>
     <sheet name="Pferde" sheetId="1" r:id="rId3"/>
     <sheet name="Rezepte" sheetId="10" r:id="rId4"/>
-    <sheet name="Emscher" sheetId="3" r:id="rId5"/>
-    <sheet name="Autos" sheetId="5" r:id="rId6"/>
-    <sheet name="Beschwerde" sheetId="6" r:id="rId7"/>
-    <sheet name="Strahlwirkung" sheetId="7" r:id="rId8"/>
+    <sheet name="Autos" sheetId="5" r:id="rId5"/>
+    <sheet name="Strahlwirkung" sheetId="7" r:id="rId6"/>
+    <sheet name="Emscher" sheetId="3" r:id="rId7"/>
+    <sheet name="Beschwerde" sheetId="6" r:id="rId8"/>
     <sheet name="Fiktion" sheetId="9" r:id="rId9"/>
-    <sheet name="Cholera" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="217">
   <si>
     <t>In Crange an der mittleren Emscher wurde ab 1441 einmal jährlich zum Laurentiustag im August ein Markt abgehalten, bei dem auch die gefangenen Emscherbrücher Dickköppe zum Verkauf kamen.</t>
   </si>
@@ -101,13 +100,6 @@
     <t>Zum ersten Mal seit 100 Jahren wird in der Emscher dann wieder pflanzliches und tierisches Leben möglich sein.</t>
   </si>
   <si>
-    <t>"Je mehr Flächen der Emscher wieder zurückgegeben werden können, desto größer sind die Möglichkeiten
-für eine eigendynamische Entwicklung mit einem möglichst geringen Unterhaltungsaufwand
-und einer maximalen Nachhaltigkeit der weiteren Entwicklung. [...] Als Restriktionen zu nennen sind
-u. a. Siedlungs-, Gewerbe- und Industrieräume, Leitungs- und Verkehrsinfrastrukturen, Deponien,
-Altlasten und Schutzgebiete."</t>
-  </si>
-  <si>
     <t>"Mehr als ein neuer Wasserlauf: Der Emscher-Umbau fördert Erholungs-, Freizeit und Lebensqualität über den Fluss hinaus."</t>
   </si>
   <si>
@@ -123,9 +115,6 @@
     <t>"Die neue Emscher kann aufgrund ihrer Vorgeschichte und den damit verbundenen irreversiblen Veränderungen immer nur Natur aus zweiter Hand sein."</t>
   </si>
   <si>
-    <t>LEBENSRAUM AUS ZWEITER HAND: Ein Lebensraum aus zweiter Hand, ein Konzept der angewandten Ökologie, beschreibt Umgebungen, die von Menschen entweder gezielt für Naturschutzzwecke erschaffen wurden oder ursprünglich natürliche Lebensräume sind, jedoch bereits durch menschliche Einflüsse verändert wurden und durch gezielte Maßnahmen näher an die Natur herangeführt werden. Das Hauptziel dabei ist beispielsweise die Steigerung der Artenvielfalt oder die Förderung der Ansiedlung von förderlichen Organismen aus naturschutzrelevanter Sicht.</t>
-  </si>
-  <si>
     <t>BERME: Eine Berme ist ein horizontales Segment oder eine ebene Fläche innerhalb der Böschung eines Damms, Walls, einer Baugrube, eines Steinbruchs oder eines Hanges. Sie hat die Funktion, die Böschung in zwei oder mehr Abschnitte zu unterteilen, und ihr Hauptzweck besteht darin, den Druck des Erdmaterials auf den Fuß der Böschung zu verringern.</t>
   </si>
   <si>
@@ -147,39 +136,12 @@
     <t>Jahresberichte der Biologischen Station Westliches Ruhrgebiet. Bericht für das Jahr 2019</t>
   </si>
   <si>
-    <t>Insgesamt sind im Rahmen von Kartierungen auf Stichprobenflächen und durch Zufallsbeobachtungen im Landschaftspark zwischen 2012 und 2018 insgesamt 17 Heuschreckenarten nachgewiesen worden. [...] Zwei der drei Nachweise gelangen auf/an Autos, was für die Art äußerst typisch ist, denn auf diesem Weg werden die flugunfähigen Tiere über kurze und lange Strecken verschleppt und breiten sich somit mit Hilfe des Menschen (Anthropochorie) in Kombination mit einem zunehmend für die Art geeigneten Klima immer weiter nach Norden aus.</t>
-  </si>
-  <si>
     <t>Jahresberichte der Biologischen Station Westliches Ruhrgebiet. Bericht für das Jahr 2021</t>
   </si>
   <si>
-    <t>Der Glänzende Storchschnabel (Geranium lucidum) besiedelt Staudenfluren, Fels- und Geröllfluren, trockenwarme Waldränder, teils auch Mauern. Wie er auf den Standort in Bottrop gelangte, der sich zwischen Wegschotter und Zierrasen befand, kann nicht geklärt werden. Vielleicht wurden Samen durch Baumaterialien eingeschleppt.</t>
-  </si>
-  <si>
-    <t>An der Aral-Tankstelle in Mülheim an der Ruhr-Heißen wurden mehrere Exemplare des Vierblättrigen Nagelkrauts  (Polycarpon tetraphyllum) gefunden. Die Art siedelte in Pflasterfugen am Saum der Autowaschanlage im Bereich des Abschlaggitters für Fußmatten. Damit erklärt sich mit hoher Wahrscheinlichkeit auch, wie Polycarpon tetraphyllum an diesen Standort gelangte: die kleinen Samen müssen sich im „Schmutz“ einer Fußmatte befunden haben, wo sie durch Schuhe hingelangten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vor 17 Jahren wurde der Götterbaum (Ailanthus altissima) im Ruhrgebiet noch als „selten“ eingesuft, begünstigt durch die steigenden Temperaturen und die geringe Anfälligkeit gegenüber hier vorkommenden Schädlingen breitet sich der Götterbaum mittlerweile aber merklich aus, und zwar nicht nur in den urbanen Räumen, sondern auch im sich ebenfalls erwärmenden Umland (v. a. entlang von Autobahnen). So ist davon auszugehen, dass die Art gegenüber empfindlicheren Pflanzen noch konkurrenzstärker wird. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besonders interessierte hierbei die Gruppe der Salzpflanzen, die ganz offensichtlich durch den Streusalzeinsatz, aber auch durch die lineare Struktur der Autobahn durch den Fernverkehr von der Küste ins Binnenland verdriftet werden. Eine zwar noch recht seltene, aber möglicherweise gerade an Autobahnen und anderen größeren Straßen in Ausbreitung begriffene Art dieser Gruppe ist der Krähenfuß-Wegerich (Plantago coronopus, Abbildung 60). Die Art ist das ganze Jahr an ihren markanten Blättern gut zu erkennen – sofern man denn an ihre Standorte gelangt. Auf der Autobahn gelingt das nur in Ausnahmefällen, z. B. im Stau oder an Ausfahrten. </t>
-  </si>
-  <si>
-    <t>Aktuell ist eine Ausbreitung des Klebrigen Alants an Autobahnen und Bundesstraßen im ganzen Bundesgebiet zu beobachten. Ob die Art von dort aus weitere Flächen außerhalb des Ruhrgebietes besiedelt, werden wir zukünftig verfolgen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Erdkröte ist eine der häufigsten Arten im Ruhrgebiet, dabei ist sie vielmehr vom Tod auf der Straße betroffen als viele andere Arten, was mit ihren weiten Wanderungen zwischen Landlebensraum und Laichplatz zusammenhängt. An vielen Stellen im westlichen Ruhrgebiet bemühen sich ehrenamtliche Tier- und Naturschützer*innen, die Tiere vor dem Straßentod zu retten. </t>
-  </si>
-  <si>
-    <t>Abseits der landwirtschaftlichen Flächen, vor allem im urbanen Raum, ist das großflächige Mulchen von Straßenbegleitgrün ein weiterer Faktor für die Artenarmut von Grünland, welches hinsichtlich seiner Gesamtfläche ein riesiges Potenzial für die urbane Artenvielfalt mit sich bringt.</t>
-  </si>
-  <si>
     <t>Jahresbericht der Biologischen Station Westliches Ruhrgebiet, Jubiläumsband 2022</t>
   </si>
   <si>
-    <t>In der Gruppe der seltenen heimischen Arten ist der Gefleckte Schierling (Conium maculatum) hervorzuheben, ein Neufund für diesen Abschnitt. Die Art tritt regelmäßig auf Mittelstreifen von Autobahnen oder Schnellstraßen auf und wurde 2010 zwischen Bochum und Essen kartiert. Der Gefleckte Schierling ist jedoch außerhalb von Autobahnen selten und wird in der Roten Liste für das Niederrheinische Tiefland als „gefährdet“ geführt (Raabe et al. 2011).</t>
-  </si>
-  <si>
     <t>Corinne Buch &amp; Peter Keil (2021) Pflanzenvielfalt an der A 40 im westlichen Ruhrgebiet. - Natur in NRW, 2/2021</t>
   </si>
   <si>
@@ -187,18 +149,12 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Emscher</t>
-  </si>
-  <si>
-    <t>1923 besetzten die Franzosen das Ruhrgebiet. Die Bevölkerung war zum passiven Widerstand aufgerufen, und vom Mai bis in den Herbst hinein ruhte die Industrieproduktion: Die Fabrikanlagen verwaisten, die Förderräder standen still und aus den Kaminen kam kein Rauch. Die Einwohner litten unter Entbehrungen, und Hunger kam auf; doch die Natur erholte sich, der Himmel wurde klar, und überall blühte und gedieh es. Augenblicklich trat "eine deutliche, selbst von Menschen wahrnehmbare Verbesserung der Luftverhältnisse im Ruhrgebiet ein, so daß man keinen Unterschied mehr zu nichtindustriellen Gegenden bemerkte"</t>
   </si>
   <si>
     <t>Besiegte Natur. Geschichte der Umwelt im 19. und 20. Jahrhundert.
 Brüggemeier, Franz-Josef / Rommelspacher, Thomas (Hrsg.)</t>
   </si>
   <si>
-    <t>"Wie nicht wenige Holzwickeder denkt Nadine Kastner wehmütig an den alten Ententeich zurück. „Ich empfinde diese Renaturierung als Verschlimmbesserung“, so die Holzwickederin. „Der alte Ententeich und der angelegte Teich im unteren Park waren sicher schöner für jeden Bürger. Renaturierung heißt doch nicht alles zuwuchern und vergammeln lassen. Sicher benötigt die Natur am und im Wasser Pflanzen. Aber sind das 1,50 m hohe Brennnesseln!? Wenn man von der Kirchstraße aus Richtung neue Kita geht, stinkt es faul. So ganz richtig kann der Plan mit der Renaturierung wohl nicht aufgegangen sein."</t>
-  </si>
-  <si>
     <t>https://emscherblog.de/natuerliche-emscher-im-park-freut-nicht-alle-holzwickeder-genossenschaft-reagiert-auf-beschwerden/</t>
   </si>
   <si>
@@ -214,69 +170,13 @@
     <t>Nach der am 17.11.2021 veröffentlichten Auswertung des Landesamtes für Natur, Umwelt und Verbraucherschutz (LANUV) wurden im Jahr 2020 pro Tag nur noch rund 5,7 Hektar für Siedlungs- und Verkehrsfläche zusätzlich in Anspruch genommen. Im Vorjahr 2019 lag der Wert bei 8,1 Hektar pro Tag. Starre Ziele – insbesondere das Null-Hektar-Ziel für 2035 – behindern zum Beispiel den aus sozialen Gründen dringend nötigen Wohnungsbau, den Ausbau regenerativer Energien (Windkraft, Photovoltaik), die Erweiterung von dringend benötigten Verkehrswegen wie Bahnstrecken und Autobahnen, sowie den größten Aufbau von Fahrradwegen in der Geschichte Nordrhein-Westfalens. (Entschließungsantrag  der Fraktion der CDU und der Fraktion der FDP,  24.11.2021)</t>
   </si>
   <si>
-    <t>Strahlwirkungs- oder Trittsteinkonzept - inzwischen in Fachwelt und Politik eingebürgerte Begriffe - sind erst wenige Jahre alt. Die plakative Bezeichnung Strahlwirkung ist seinerzeit auf Initiative des Deutschen Rates für Landespflege entstanden. Sie beschreibt die positiven Ausstrahlungen eines intakten, naturnahen Gewässerabschnittes auf benachbarte technisch ausgebaute, eingeengte und begradigte Abschnitte.</t>
-  </si>
-  <si>
     <t>Strahlwirkungs- und Trittsteinkonzept in der Planungspraxis LANUV-Arbeitsblatt 16</t>
   </si>
   <si>
-    <t>Einschränkungen der Lebensraumfunktion der Gewässer bestehen dennoch, aufgrund von Veränderungen von Wasserhaushalt und Abflussverhalten und v.a. aufgrund eines massiven Gewässerausbaus zugunsten intensiver Nutzungen. Häufig sind die Gewässer auf ihre Funktion der Wasserund Hochwasserableitung reduziert. Dies spiegelt sich auch in ihren morphologischen Verhältnissen wider: begradigte, tiefer gelegte und eingedeichte Gewässer, fehlende natürliche Auen durch gewässernahe Bebauung oder Nutzung, massive Sohl- oder Ufersicherung, Unterbrechung der Durchgängigkeit durch zahlreiche Querbauwerke mit Rückstauwirkungen und zum Teil mit Wasserkraftnutzung.</t>
-  </si>
-  <si>
-    <t>Strahlwirkung bedeutet, dass die Umgebung von Gewässern positiv beeinflusst wird, und das geschieht auf zwei Arten:
-Organismen bewegen sich von gesunden Bereichen zu weniger gesunden. Das ist besonders offensichtlich, wenn die gesunden Bereiche viele Lebewesen haben.
-Schlechte Lebensbedingungen in einem Bereich werden von guten Bedingungen aus gesunden Gewässern überdeckt. Zum Beispiel, wenn sauberes Wasser oder typischer Schlamm von gesunden Gewässern in einen weniger gesunden Bereich gelangen.</t>
-  </si>
-  <si>
     <t>nach: Strahlwirkungs- und Trittsteinkonzept in der Planungspraxis LANUV-Arbeitsblatt 16</t>
   </si>
   <si>
-    <t>Der Begriff "negative Fern- und Nachbarschaftswirkung" beschreibt, wie ein gesundes Gewässer durch Einflüsse aus benachbarten oder oberhalb gelegenen Gebieten negativ beeinflusst werden kann. Dies kann passieren, wenn schlechte Umweltbedingungen wie Verschmutzung, Ablagerung von Schmutz oder Temperaturveränderungen von außerhalb in das gesunde Gewässer gelangen. Es kann auch vorkommen, dass untypische Organismen aus benachbarten verschlechterten Bereichen in das gesunde Gewässer gelangen und dort Probleme verursachen.</t>
-  </si>
-  <si>
     <t>Jean Baudrillard - "Die Illusion des Endes" (Merve 1994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Schlimmste ist, daß im Laufe der weltweiten Wiederaufbereitung von Abfällen, die zu unserer historischen Aufgabe geworden ist, die menschliche Gattung beginnt, sich selbst als Abfall zu produzieren und an sich selber diese Ausschußproduktion fortzusetzen. Das Schlimmste ist nicht, daß wir von den Abfällen der industriellen und städtischen Zusammenballungen überschwemmt werden, sondern daß wir selber zu Müll werden. Die Natur, die natürliche Welt wird derartig vollgemüllt, bedeutungslos und lästig, daß man nicht mehr weiß, wie man sie loswerden soll. Indem man stark zentralisierte Strukturen, städtische, industrielle und technische Systeme mit hoher Dichte erschafft und gnadenlos Programme, Funktionen und Modelle konzentriert, verwandelt man den gesamten Rest in Müll, in Abfall, in nutzlose Überreste. Indem man die höheren Funktionen in den Orbit verlagert, verwandelt man die Erde selbst in Abfall, in ein marginales Territorium, in einen peripheren Raum. </t>
-  </si>
-  <si>
-    <t>Das ist eine unerträgliche Situation, denn indem wir der Natur den Status eines Rechtssubjektes zuweisen, verleihen wir ihr auch alle Laster der Subjektivität, statten wir sie nach unserem Vorbild mit schlechtem Gewissen und Sehnsucht (nach einem verlorenen Objekt, das in diesem Fall, nur wir sein können) aus, mit verschiedenen Trieben und insbesondere mit einem Rachedrang. Das »Gleichgewicht«, von dem man uns in der Ökologie so viel erzählt (out of balance), ist weniger das von Ressourcen und ihrer Vergeudung auf dem Erdball, sondern vielmehr das metaphysische von Subjekt und Objekt. Und dieses metaphysische Subjekt/Objekt-Gleichgewicht wird gegenwärtig zugunsten des Subjekts gestört, welches mit allen hoch entwickelten Kommunikationstechniken gerüstet ist, an deren Horizont das Objekt verschwunden ist. Dieses gestörte Gleichgewicht führt zwangsläufig zum Gegenschlag des Objekts. Wie die Individuen sich gegen die Transparenz und gegen die virtuelle Verantwortlichkeit, die ihnen als Subjekte auferlegt wird, mit Undurchdringlichkeit, Widerstand, Versagen. Delinquenz und kollektiver Verweigerung wehren, so wehrt sich auch die Natur gegen diese erzwungene Beförderung zum Rechtssubjekt, gegen diese Erpressung zu Konsens und Kommunikation, mit verschiedenen Verhaltensweisen von radikaler Andersartigkeit, wie etwa Katastrophen, Turbulenzen, Erdbeben und Chaos.</t>
-  </si>
-  <si>
-    <t>ChatGPT erfindet einen Vertrag mit der Natur</t>
-  </si>
-  <si>
-    <t>Abschnitt 3.2: Pflichten der Emscher-Groppe
-Die Emscher-Groppe hat auch bestimmte Pflichten, um ihre Lebensbedingungen zu verbessern und ihr Überleben zu sichern. Dazu gehört insbesondere, dass sie sich an bestimmte Verhaltensregeln hält, um das ökologische Gleichgewicht im Fluss zu erhalten. Die Emschergenossenschaft erwartet von der Emscher-Groppe, dass sie sich nicht übermäßig vermehrt und ihre Beute nicht überbeansprucht. Darüber hinaus sollte sie auch darauf achten, dass sie keine Schäden an der natürlichen Umgebung verursacht.
-Im Falle einer Nichteinhaltung dieser Pflichten behält sich die Emschergenossenschaft das Recht vor, angemessene Maßnahmen zu ergreifen, um das ökologische Gleichgewicht im Fluss wiederherzustellen. Diese Maßnahmen können beispielsweise darin bestehen, dass die Emscher-Groppe in einen anderen Teil des Flusses umgesiedelt wird oder dass ihre Population kontrolliert wird.
-Die Emscher-Groppe hat das Recht, im Vorfeld über solche Maßnahmen informiert zu werden und die Möglichkeit zu haben, ihre Bedenken und Vorschläge einzubringen. Die Emschergenossenschaft verpflichtet sich, in enger Zusammenarbeit mit Experten und Umweltschutzverbänden angemessene Maßnahmen zu ergreifen, um das ökologische Gleichgewicht im Fluss aufrechtzuerhalten und die Emscher-Groppe und andere Tierarten zu schützen.</t>
-  </si>
-  <si>
-    <t>Abschnitt 1: Verpflichtungen der Natur: Im Gegenzug verpflichtet sich die Natur, die Wiederansiedlung heimischer Pflanzen- und Tierarten entlang der Emscher zu fördern. Die Pflanzen und Tiere sollen sich im natürlichen Gleichgewicht entwickeln und das Ökosystem in dieser Region unterstützen. Konkret bedeutet dies, dass die angesiedelten Tierarten ihren natürlichen Lebensraum nutzen und sich innerhalb der Region vermehren sollen. Die heimischen Pflanzen sollen in einem ausgewogenen Verhältnis wachsen und ihre ökologische Funktion erfüllen.</t>
-  </si>
-  <si>
-    <t>Abschnitt 3.3: Pflichten der Emscher-Groppe gegenüber Wanderern und Besuchern
-Die Emscher-Groppe hat auch Pflichten gegenüber Wanderern und Besuchern der Emscher, um deren Sicherheit und Interessen zu gewährleisten. Die Emschergenossenschaft erwartet von der Emscher-Groppe, dass sie nicht aggressiv auf Menschen reagiert und nicht in der Nähe von beliebten Wanderwegen oder anderen Bereichen auftaucht, die von Menschen frequentiert werden.
-Die Emschergenossenschaft verpflichtet sich, Wanderer und Besucher der Emscher über das Vorhandensein der Emscher-Groppe zu informieren und sie darüber aufzuklären, wie sie sich in ihrer Nähe verhalten sollten, um sie und ihre Umgebung zu schützen. Die Emscher-Groppe hat das Recht, vor Störungen durch Wanderer und Besucher geschützt zu werden, und die Emschergenossenschaft behält sich das Recht vor, geeignete Maßnahmen zu ergreifen, um das Wohlbefinden der Emscher-Groppe zu gewährleisten.
-Im Falle einer Nichteinhaltung dieser Pflichten behält sich die Emschergenossenschaft das Recht vor, die betreffende Person zu ermahnen oder von den betroffenen Gebieten auszuschließen. Die Emschergenossenschaft wird jedoch auch sicherstellen, dass diese Personen angemessen informiert werden, um ihr Verhalten in Zukunft zu verbessern und das ökologische Gleichgewicht im Fluss aufrechtzuerhalten.</t>
-  </si>
-  <si>
-    <t>Die Natur erwartet von den Besuchern der Emscher nicht nur körperliche und emotionale Reaktionen, sondern auch verbale Äußerungen. Es wird erwartet, dass die Besucher in einer angemessenen und respektvollen Art und Weise über ihre Eindrücke sprechen und ihre Dankbarkeit gegenüber der Natur ausdrücken. Es können beispielsweise folgende Aussagen getätigt werden: "Ich fühle mich so lebendig und verbunden mit der Natur", "Dies ist ein wahrer Schatz, den wir bewahren müssen", "Danke, dass ich dieses unvergessliche Erlebnis haben durfte". Es ist jedoch zu vermeiden, dass die Aussagen übertrieben oder künstlich wirken. Die Natur bevorzugt ehrliche und authentische Äußerungen. Die Natur toleriert keine verbalen Äußerungen, die eine negative Auswirkung auf andere Besucher oder die Natur selbst haben könnten. Bei Nichtbeachtung dieser Verpflichtungen behält sich die Natur das Recht vor, Besucher von der Emscher auszuschließen.</t>
-  </si>
-  <si>
-    <t>Falls eine Person wiederholt übertriebene oder künstlich wirkende Aussagen tätigt, kann dies als Vertragsverletzung angesehen werden. Die Konsequenzen dafür können sein, dass die Person von weiteren Besuchen an der Emscher ausgeschlossen wird oder eine Geldstrafe zahlen muss. Um ihr Verhalten zu verbessern, könnte die Person beispielsweise an speziellen Natur-Workshops teilnehmen oder einen Naturführer konsultieren, um mehr über die Emscher und ihre Natur zu lernen und so ihr Verständnis und ihre Wertschätzung für die Natur zu vertiefen. Darüber hinaus könnte die Person dazu angehalten werden, ihre Aussagen bewusster und authentischer zu gestalten und sich stärker auf das tatsächliche Erleben und ihre eigenen Empfindungen zu konzentrieren, anstatt lediglich leere Phrasen zu wiederholen.</t>
-  </si>
-  <si>
-    <t>Eine leere Phrase ist eine Aussage, die keine wirkliche Bedeutung hat und nur dazu dient, Floskeln und Klischees zu reproduzieren, ohne dass eine tatsächliche Erfahrung oder Emotion dahinter steht. Im Kontext des Vertrages zwischen der Natur und den Besuchern der Emscher wird erwartet, dass die Besucher ehrliche und authentische Aussagen über ihre Erfahrungen und Empfindungen machen. Hier sind einige Anhaltspunkte, anhand derer leere Phrasen identifiziert werden können:
-Allgemeinheit: Wenn eine Aussage sehr allgemein und vage ist und keine konkreten Details enthält, kann dies ein Hinweis darauf sein, dass es sich um eine leere Phrase handelt. Beispielsweise könnte die Aussage "Die Emscher ist wirklich schön" als allgemeine Aussage angesehen werden.
-Wiederholung: Wenn eine Person dieselbe Phrase oder denselben Ausdruck wiederholt, ohne eine neue Perspektive oder Erfahrung zu bieten, kann dies darauf hindeuten, dass es sich um eine leere Phrase handelt. Zum Beispiel könnte eine Person wiederholt sagen "Ich bin total beeindruckt" oder "Das ist wirklich erstaunlich", ohne weitere Details oder Emotionen zu beschreiben.
-Mangel an persönlicher Erfahrung: Wenn eine Person über eine Erfahrung spricht, die sie offensichtlich nicht selbst gemacht hat oder an einem Ort, den sie nicht besucht hat, kann dies ein Hinweis darauf sein, dass es sich um eine leere Phrase handelt. Zum Beispiel könnte eine Person sagen "Ich liebe es hier", obwohl sie noch nie zuvor an der Emscher war.
-Um leere Phrasen zu vermeiden, können Besucher der Emscher versuchen, ihre Erfahrungen und Emotionen möglichst genau zu beschreiben. Hier sind einige Tipps, um authentische Aussagen zu machen:
-Konkrete Details: Versuchen Sie, möglichst viele konkrete Details über Ihre Erfahrung zu beschreiben, wie zum Beispiel die Farben, Gerüche oder Geräusche, die Sie wahrgenommen haben.
-Emotionale Reaktionen: Beschreiben Sie Ihre emotionalen Reaktionen auf Ihre Erfahrung, wie zum Beispiel Freude, Dankbarkeit oder Ehrfurcht.
-Eigene Worte: Vermeiden Sie es, vorformulierte Ausdrücke oder Phrasen zu wiederholen und verwenden Sie Ihre eigenen Worte, um Ihre Erfahrung zu beschreiben.
-Authentizität: Seien Sie ehrlich und authentisch in Ihren Aussagen und versuchen Sie nicht, Ihre Erfahrung zu übertreiben oder zu dramatisieren, um anderen zu imponieren.
-Durch das Vermeiden von leeren Phrasen und das Bemühen um authentische Aussagen können Besucher der Emscher dazu beitragen, eine tiefere Verbindung zur Natur aufzubauen und das Ziel des Vertrages zwischen der Natur und den Besuchern zu erreichen.</t>
   </si>
   <si>
     <t>https://www.waz.de/staedte/vest/die-dickkoeppe-sollen-wieder-wiehern-id10964449.html</t>
@@ -380,9 +280,6 @@
     <t>\img\food\00002-2778533969.png</t>
   </si>
   <si>
-    <t>text: ChatGPT, Bild: Automatic1111</t>
-  </si>
-  <si>
     <t>Anleitung:
 1. Die Emschergroppen waschen und von Schuppen und Innereien befreien.
 2. Bereiten Sie eine Panierstation vor: In drei flachen Schalen Mehl, verquirlte Eier und Paniermehl bereitstellen.
@@ -396,9 +293,6 @@
   </si>
   <si>
     <t>\img\food\00000-2375617243.png</t>
-  </si>
-  <si>
-    <t>Durch die Renaturierungsmaßnahmen konnten in den letzten Jahren z.B. einige Fisch- oder Pflanzenarten wieder in der Emscherregion angesiedelt werden. Nun müssen wir Menschen natürlich aufpassen, dass uns diese Lebensformen nicht den Lebensraum wegnehmen - am besten, wir essen sie also schnell wieder auf. Hier einige Rezepte:</t>
   </si>
   <si>
     <t>**Gebackene Emschergroppe mit Pommes frites**
@@ -486,15 +380,9 @@
     <t>\img\horses1\00001-1366430409.png</t>
   </si>
   <si>
-    <t>Image: AUTOMATIC1111, Stable Diffusion WebUI</t>
-  </si>
-  <si>
     <t>\img\horses1\00027-1637603999.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Image: AUTOMATIC1111, Stable Diffusion WebUI </t>
-  </si>
-  <si>
     <t>\img\horses1\stricker.jpg</t>
   </si>
   <si>
@@ -510,18 +398,9 @@
     <t>\img\horses1\00014-3144778159.png</t>
   </si>
   <si>
-    <t>LEITBILD: "Das Leitbild ist Grundlage für die Bewertung von Fließgewässerökosystemen und besitzt dabei als Maßstab die höchste Wertstufe. Es bietet weiterhin eine Orientierung bei der Planung von ökologischen Verbesserungen, wie der naturnahen Unterhaltung und dem naturnahen Ausbau. Dabei muss das Entwicklungsziel (Soll-Zustand) nicht notwendigerweise mit dem Leitbild deckungsgleich sein, da in der Praxis vielfach neben den ökologischen Funktionen auch andere gesellschaftspolitische Rahmenbedingungen und Ansprüche der verantwortlichen Interessenträger und Nutzer berücksichtigt werden müssen. Das Leitbild definiert jedoch den ökologischen Maßstab, gegenüber welchem andere Planungsvorhaben abgewogen werden müssen. Stimmen am Ende eines Entwicklungsprozesses der Zustand des Fließgewässers und das Leitbild überein, so kann von „Renaturierung“ gesprochen werden."</t>
-  </si>
-  <si>
-    <t>\img\intro\8061694E-E4D8-11ED-B3E6-0ADBDAFC94A3.jpg</t>
-  </si>
-  <si>
     <t>Foto von Daniel Hengst, 2023</t>
   </si>
   <si>
-    <t>\img\intro\8061694E-E4D8-13.jpg</t>
-  </si>
-  <si>
     <t>STRAHLWIRKUNG: Der Begriff „Strahlwirkung“ bedeutet, dass auch in angrenzenden degradierten Gewässerabschnitten gute, d. h. gewässertypische Lebensgemeinschaften unter bestimmten Randbedingungen nachgewiesen werden können. Erklärt wird dies dadurch, dass von naturnahen Abschnitten (Strahlursprünge) die gewässertypischen Arten auch in anschließende naturfernere Abschnitte (Strahlwege) durch Zuwanderung oder Drift einwandern. Die Reichweite der Wirkung ist begrenzt und kann durch Trittsteine bis zum nächsten Strahlursprung verlängert werden.</t>
   </si>
   <si>
@@ -543,29 +422,332 @@
     <t>Automobile und Lastkraftwagen spielen nicht nur für Menschen, sondern auch für alle andere Lebensformen eine wichtige Rolle. Hier ein paar interessante Aspekte ihrer umweltverändernden Gewalt in der Region der Emscher.</t>
   </si>
   <si>
-    <t>Hoerde, 23. Aug 1866
-Mit Rücksicht auf die immer weiter um sich greifende Cholera, die in dem nahe gelegenen Dorstfeld bereits in heftiger, schnell tödtender Weise aufgetreten ist, hat der hiesige Magistrat beschlossen, den dießjährigen Herbstmarkt, die sogenannte Hoerder Messe, ausfallen zu lassen, um unsere bis jetzt glücklich verschont gebliebene Stadt vor Einschleppung dieser furchtbaren Seuche, soweit sich dies eben verhüten läßt, zu schützen.</t>
-  </si>
-  <si>
-    <t>Hoerde, 21. Sept 1866
-Die Cholera hat, seit unserm letzten Bericht in der vorigen Nummer gefährliche Fortschritte gemacht. Dis heute Vormittag sind auf dem hiesigen Bürgermeisteramte weitere 18 Cholera-Erkrankungen und 10 Todesfälle angemeldet worden. Leider ist aber die Zahl der Cholerakranken bereits bedeutend höher. Nach den von uns eingezogenen Erkundigungen können wir als zuverlässig mittheilen, daß im Ganzen 46  Personen erkrankt, 16 gestorben, 5 genesen, und 25 sich noch in Behandlung befinden. Die meisten Erkrankungen fanden in unseren tiefergelegenen Stadttheilen, der sogenannten Seekante, statt, wo sich aber auch in den betreffenden Wohnungen größtentheils eine solche Unreinlichkeit zeigte, daß es kein Wunder, ist, wenn dort die Seuche schnelle Fortschritte macht.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoerde, 2. Jan 1867
-Mit dem Beginn des neuen Jahres dürfen wir mit Dank gegen Gott konstatiren, daß die furchtbare Geißel unserer Stadt, die, Cholera, seit vier Wochen verschwunden und, daß diese Krankheit hier nunmehr, als völlig erlöschen, zu betrachten ist. Möge uns der Himmel für alle Zeiten gnädig vor ihrer Wiederkehr bewahren! 
-Die Opfer, welche die Seuche unter uns forderte, sind so groß, wie fast in keinem Orte Westfalens undR heinlands. Der erste wirkliche Cholerafall wurde am 15. September und der letzte am 11. December d. J. angemeldet. </t>
-  </si>
-  <si>
-    <t>In dieser kurzen Periode erkrankten im Ganzen 637 Personen oder 7,5% unserer Einwohner, davon sind 287 oder 3,33% der Bevölkerung und 45% der Erkrankten gestorben und 350 Personen oder 55% der Letzteren genesen. Auf die hiesigen Gemeinden vertheilen sich die Todesfälle wie folgt:
-a.) in der größeren evangelischen Gemeinde starben133 wodurch: 
-22 zu Wittwer, 30 zu Wittwen und 135 Waisen wurden.
-b.) in der kleinen evangelischen Gemeinde 40 und hinterließen
-9 Wittwen und 5 Waisen;
-c.) in der katholischen Gemeinde 114 von denen hinterblieben:
-18 Wittwer, 32 Wittwen und 149 Waisen;
-d.) in der jüdischen Gemeinde 6, welche hinterließen
-1 Wittwe und 5 Waisen.
-Zusammen haben also 73 Wittwen und 294 Waisen den Tod ihrer Ernährer zu beklagen. An Hüttenarbeitern allein - bei dem Hoerder Verein beschäftigt - starben 88 (in 10 Familien beide Ehegatten) und hinterließen 58 Wittwen und eine große Anzahl Waisen, für welche die Arbeiter-Kranken-u. Unterstützungs-Kasse zu sorgen hat.</t>
+    <t>\img\berne1\vorfluter.jpg</t>
+  </si>
+  <si>
+    <t>Abb. 36a / Die Berne, einer der Hauptvorfluter der Stadt Essen, oberhalb der Kläranlage Essen-Nord. Alter Zustand.</t>
+  </si>
+  <si>
+    <t>aus: Die Emscher. Geschichte und Geschichten einer Flußlandschaft von Hubert Kurowski</t>
+  </si>
+  <si>
+    <t>\img\berne1\00015-457339224.png</t>
+  </si>
+  <si>
+    <t>\img\berne1\00012-457339221.png</t>
+  </si>
+  <si>
+    <t>\img\berne1\00011-2088319762.png</t>
+  </si>
+  <si>
+    <t>\img\berne1\00010-2088319761.png</t>
+  </si>
+  <si>
+    <t>Brücken über die Emscher: Holzsteg bei Dortmund, 1885 (Quelle: Privat)</t>
+  </si>
+  <si>
+    <t>Bild wie oben, bearbeitet mit Stable Diffusion und Bildbearbeitungssoftware</t>
+  </si>
+  <si>
+    <t>\img\bridge1\00012-3176768318.png</t>
+  </si>
+  <si>
+    <t>\img\bridge1\00003-1470898953.png</t>
+  </si>
+  <si>
+    <t>\img\bridge1\00002-1470898952.png</t>
+  </si>
+  <si>
+    <t>\img\bridge1\00001-1470898951.png</t>
+  </si>
+  <si>
+    <t>\img\flood\00142.jpg</t>
+  </si>
+  <si>
+    <t>\img\flood\00143.jpg</t>
+  </si>
+  <si>
+    <t>Hochwasserkatastrophe in Essen-Karnap nach dem Bruch des Emscherdeiches, 8. Februar 1946 (Willy van Heekern/Fotoarchiv Ruhr Museum) coloriert mit stable diffusion und Bildbearbeitungssoftware</t>
+  </si>
+  <si>
+    <t>\vids\2023-07-05_13-04-03.mp4</t>
+  </si>
+  <si>
+    <t>erstellt mit Stable Diffusion basierend auf einem Foto der Emscher bei Bottrop von Daniel Hengst</t>
+  </si>
+  <si>
+    <t>erstellt mit Stable Diffusion basierend auf einem Foto der Emscher an der Zweigertbrücke in Essen von Daniel Hengst</t>
+  </si>
+  <si>
+    <t>\vids\2023-07-04_12-59-52.mp4</t>
+  </si>
+  <si>
+    <t>\vids\00001.mp4</t>
+  </si>
+  <si>
+    <t>erstellt mit Stable Diffusion basierend auf einem Foto des Holzbachs nahe des Emscherbruchs von Daniel Hengst</t>
+  </si>
+  <si>
+    <t>Bild mit Stable Diffusion erstellt</t>
+  </si>
+  <si>
+    <t>Text via Chatbot mit Künstlicher Intelligenz und Bild mit Stable Diffusion erstellt</t>
+  </si>
+  <si>
+    <t>Emscher Flußlauf mit Nebenarmen zwischen der Löchler Mühle und Haus Oberhausen 1820 o.M. 36 x 184 kol. Zeichnung F. Kuentz</t>
+  </si>
+  <si>
+    <t>Landesarchiv NRW Abteilung Westfalen Bestand: Karten A - Signatur: 5104</t>
+  </si>
+  <si>
+    <t>\img\map_old2\W_Karten_A-05104_r_vlnr_01 (Medium).jpg</t>
+  </si>
+  <si>
+    <t>Karte aus Landesarchiv NRW (siehe oben) bearbeitet mit Stable Diffusion</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00059-1090774612.png</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00035-2506681196.png</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00037-2506681198.png</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00041-811745486.png</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00044-900323239.png</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00046-900323241.png</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00056-3392653724.png</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00058-1090774611.png</t>
+  </si>
+  <si>
+    <t>\img\shore\00003-2826893565.png</t>
+  </si>
+  <si>
+    <t>erstellt mit Stable Diffusion basierend auf einem Foto der Seitenbefestigung des Resser Bach in Essen von Daniel Hengst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn man sich mit der neuen Natur in der Emscherregion beschäftigt, stolpert man immer wieder über die Begriffe Strahlwirkung und Trittsteine. </t>
+  </si>
+  <si>
+    <t>Abb 36b. Berne oberhalb der Kläranlage Essen-Nord. Neuer Zustand</t>
+  </si>
+  <si>
+    <t>\img\berne2\berne_neu.jpg</t>
+  </si>
+  <si>
+    <t>\img\berne2\00003-4181618091.png</t>
+  </si>
+  <si>
+    <t>\img\berne2\00001-4181618089.png</t>
+  </si>
+  <si>
+    <t>img\berne2\00001-989530833.png</t>
+  </si>
+  <si>
+    <t>\img\berne2\00000-989530832.png</t>
+  </si>
+  <si>
+    <t>🚱🤑🌫️⛓️🏭 |💧💧💧| 🏭⛓️🌫️🤑🚱</t>
+  </si>
+  <si>
+    <t>🥈</t>
+  </si>
+  <si>
+    <t>🎢⚖️</t>
+  </si>
+  <si>
+    <t>💁🏼💁‍♂️💁‍♀️💁🏽‍♀️💁🏽‍♂️💁🏽</t>
+  </si>
+  <si>
+    <t>🏝️</t>
+  </si>
+  <si>
+    <t>🎣</t>
+  </si>
+  <si>
+    <t>"Je mehr Flächen der Emscher wieder zurückgegeben werden können, desto größer sind die Möglichkeiten für eine eigendynamische Entwicklung mit einem möglichst geringen Unterhaltungsaufwand und einer maximalen Nachhaltigkeit der weiteren Entwicklung. [...] Als Restriktionen zu nennen sind
+u. a. Siedlungs-, Gewerbe- und Industrieräume, Leitungs- und Verkehrsinfrastrukturen, Deponien, Altlasten und Schutzgebiete."</t>
+  </si>
+  <si>
+    <t>👋🏻</t>
+  </si>
+  <si>
+    <t>🐟🐟🐟</t>
+  </si>
+  <si>
+    <t>🔨💅🏻</t>
+  </si>
+  <si>
+    <t>🤡</t>
+  </si>
+  <si>
+    <t>img\paint\paint_0003_Layer 1.jpg</t>
+  </si>
+  <si>
+    <t>\img\paint\paint_0002_Layer 2.jpg</t>
+  </si>
+  <si>
+    <t>\img\paint\paint_0001_Layer 3.jpg</t>
+  </si>
+  <si>
+    <t>\img\paint\paint_0000_Layer 4.jpg</t>
+  </si>
+  <si>
+    <t>\img\paint\paint_0004_Layer 1.jpg</t>
+  </si>
+  <si>
+    <t>Foto vom Resser Bach in Gelsenkirchen und Übermalung mit Textmarkern von Daniel Hengst</t>
+  </si>
+  <si>
+    <t>Foto des Ewaldsee in Gelsenkirchen und Übermalung mit Textmarkern von Daniel Hengst</t>
+  </si>
+  <si>
+    <t>Foto des Moor im Emscherbruch und Übermalung mit Textmarkern von Daniel Hengst</t>
+  </si>
+  <si>
+    <t>Foto des Mühlbach in Essen und Übermalung mit Textmarkern von Daniel Hengst</t>
+  </si>
+  <si>
+    <t>Mit Bildbearbeitungssoftware bearbeitetet Übermalungen von Daniel Hengst</t>
+  </si>
+  <si>
+    <t>LEITBILD: Das Leitbild ist Grundlage für die Bewertung von Fließgewässerökosystemen und besitzt dabei als Maßstab die höchste Wertstufe. Es bietet weiterhin eine Orientierung bei der Planung von ökologischen Verbesserungen, wie der naturnahen Unterhaltung und dem naturnahen Ausbau. Dabei muss das Entwicklungsziel (Soll-Zustand) nicht notwendigerweise mit dem Leitbild deckungsgleich sein, da in der Praxis vielfach neben den ökologischen Funktionen auch andere gesellschaftspolitische Rahmenbedingungen und Ansprüche der verantwortlichen Interessenträger und Nutzer berücksichtigt werden müssen. Das Leitbild definiert jedoch den ökologischen Maßstab, gegenüber welchem andere Planungsvorhaben abgewogen werden müssen. Stimmen am Ende eines Entwicklungsprozesses der Zustand des Fließgewässers und das Leitbild überein, so kann von „Renaturierung“ gesprochen werden.</t>
+  </si>
+  <si>
+    <t>\img\map_old2\00055-3392653723.png</t>
+  </si>
+  <si>
+    <t>\img\bridge1\original.jpg</t>
+  </si>
+  <si>
+    <t>\img\intro\8061694E-E4D8-11ED-B3E6-0ADBDAFC94A3.png</t>
+  </si>
+  <si>
+    <t>\img\intro\8061694E-E4D8-13.png</t>
+  </si>
+  <si>
+    <t>Abb. 40a Holzbach. 50 Morgen Waldbestand waren infolge Versumpfung zum grossen Teile abgestorben, mit weiterer Vernichtung war zu rechnen. Doch oberhalb eingeleitete stinkende Abwässer einer Preßhefefabrik war die ganze Gegend verpestet. Außerdem flossen Abwässer aus dem Stadtteil Buer-Resse in das Sumpfgebiet.</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\0000001_original.jpg</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00009-1797674041.png</t>
+  </si>
+  <si>
+    <t>Bild wie oben, bearbeitet mit Stable Diffusion</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00013-2283613889.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00015-845393430.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00018-1686521353.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00024-1410478488.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00028-1270106856.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00029-3351069093.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00051-3005154357.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00062-2530925899.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00060-3655048543.png</t>
+  </si>
+  <si>
+    <t>\img\emscherbruch1\00055-3568097228.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich zitiere im Folgenden aus einemweiteren sehr alten Buch (über 5 Jahre alt) in dem es um Simulationen geht. Ich hoffe es macht Dir Spass! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Das Schlimmste ist, daß im Laufe der weltweiten Wiederaufbereitung von Abfällen, die zu unserer historischen Aufgabe geworden ist, die menschliche Gattung beginnt, sich selbst als Abfall zu produzieren und an sich selber diese Ausschußproduktion fortzusetzen. Das Schlimmste ist nicht, daß wir von den Abfällen der industriellen und städtischen Zusammenballungen überschwemmt werden, sondern daß wir selber zu Müll werden." </t>
+  </si>
+  <si>
+    <t>"Die Natur, die natürliche Welt wird derartig vollgemüllt, bedeutungslos und lästig, daß man nicht mehr weiß, wie man sie loswerden soll. Indem man stark zentralisierte Strukturen, städtische, industrielle und technische Systeme mit hoher Dichte erschafft und gnadenlos Programme, Funktionen und Modelle konzentriert, verwandelt man den gesamten Rest in Müll, in Abfall, in nutzlose Überreste."</t>
+  </si>
+  <si>
+    <t>"Das ist eine unerträgliche Situation, denn indem wir der Natur den Status eines Rechtssubjektes zuweisen, verleihen wir ihr auch alle Laster der Subjektivität, statten wir sie nach unserem Vorbild mit schlechtem Gewissen und Sehnsucht (nach einem verlorenen Objekt, das in diesem Fall, nur wir sein können) aus, mit verschiedenen Trieben und insbesondere mit einem Rachedrang."</t>
+  </si>
+  <si>
+    <t>"Das »Gleichgewicht«, von dem man uns in der Ökologie so viel erzählt (out of balance), ist weniger das von Ressourcen und ihrer Vergeudung auf dem Erdball, sondern vielmehr das metaphysische von Subjekt und Objekt. Und dieses metaphysische Subjekt/Objekt-Gleichgewicht wird gegenwärtig zugunsten des Subjekts gestört, welches mit allen hoch entwickelten Kommunikationstechniken gerüstet ist, an deren Horizont das Objekt verschwunden ist."</t>
+  </si>
+  <si>
+    <t>"Wie die Individuen sich gegen die Transparenz und gegen die virtuelle Verantwortlichkeit, die ihnen als Subjekte auferlegt wird, mit Undurchdringlichkeit, Widerstand, Versagen, Delinquenz und kollektiver Verweigerung wehren, so wehrt sich auch die Natur gegen diese erzwungene Beförderung zum Rechtssubjekt, gegen diese Erpressung zu Konsens und Kommunikation, mit verschiedenen Verhaltensweisen von radikaler Andersartigkeit, wie etwa Katastrophen, Turbulenzen, Erdbeben und Chaos."</t>
+  </si>
+  <si>
+    <t>1923: Franzosen besetzten das Ruhrgebiet. Die Bevölkerung war zum passiven Widerstand aufgerufen, und vom Mai bis in den Herbst hinein ruhte die Industrieproduktion [...]. Die Einwohner litten unter Entbehrungen, und Hunger kam auf; doch die Natur erholte sich, der Himmel wurde klar, und überall blühte und gedieh es. Augenblicklich trat "eine deutliche, selbst von Menschen wahrnehmbare Verbesserung der Luftverhältnisse im Ruhrgebiet ein, so daß man keinen Unterschied mehr zu nichtindustriellen Gegenden bemerkte"</t>
+  </si>
+  <si>
+    <t>2021: Wie nicht wenige Holzwickeder denkt Nadine Kastner wehmütig an den alten Ententeich zurück. „Ich empfinde diese Renaturierung als Verschlimmbesserung“, so die Holzwickederin. „Der alte Ententeich und der angelegte Teich im unteren Park waren sicher schöner für jeden Bürger. Renaturierung heißt doch nicht alles zuwuchern und vergammeln lassen. Sicher benötigt die Natur am und im Wasser Pflanzen. Aber sind das 1,50 m hohe Brennnesseln!? Wenn man von der Kirchstraße aus Richtung neue Kita geht, stinkt es faul. So ganz richtig kann der Plan mit der Renaturierung wohl nicht aufgegangen sein.</t>
+  </si>
+  <si>
+    <t>Ich habe einige historische und zeitgenössische interessante Aspekte des Mensch-Natur-Verhältnisses für Dich:</t>
+  </si>
+  <si>
+    <t>LEBENSRAUM AUS ZWEITER HAND: Ein Lebensraum aus zweiter Hand [...] beschreibt Umgebungen, die von Menschen entweder gezielt für Naturschutzzwecke erschaffen wurden oder ursprünglich natürliche Lebensräume sind, jedoch bereits durch menschliche Einflüsse verändert wurden und durch gezielte Maßnahmen näher an die Natur herangeführt werden. Das Hauptziel dabei ist beispielsweise die Steigerung der Artenvielfalt oder die Förderung der Ansiedlung von förderlichen Organismen aus naturschutzrelevanter Sicht.</t>
+  </si>
+  <si>
+    <t>Durch die Renaturierungsmaßnahmen konnten in den letzten Jahren z.B. einige Fisch- und Pflanzenarten wieder in der Emscherregion angesiedelt werden. Nun müssen wir aufpassen, dass uns diese nicht den Lebensraum wegnehmen - am besten, wir essen sie also schnell wieder auf. Hier einige Rezepte! Guten Appetit!</t>
+  </si>
+  <si>
+    <t>"An der Aral-Tankstelle in Mülheim an der Ruhr-Heißen wurden mehrere Exemplare des Vierblättrigen Nagelkrauts  (Polycarpon tetraphyllum) gefunden. Die Art siedelte in Pflasterfugen am Saum der Autowaschanlage im Bereich des Abschlaggitters für Fußmatten. [...] die kleinen Samen müssen sich im „Schmutz“ einer Fußmatte befunden haben, wo sie durch Schuhe hingelangten."</t>
+  </si>
+  <si>
+    <t>"Insgesamt sind im Rahmen von Kartierungen auf Stichprobenflächen und durch Zufallsbeobachtungen im Landschaftspark zwischen 2012 und 2018 insgesamt 17 Heuschreckenarten nachgewiesen worden. [...] Zwei der drei Nachweise gelangen auf/an Autos, was für die Art äußerst typisch ist, denn auf diesem Weg werden die flugunfähigen Tiere über kurze und lange Strecken verschleppt und breiten sich somit mit Hilfe des Menschen in Kombination mit einem zunehmend für die Art geeigneten Klima immer weiter nach Norden aus."</t>
+  </si>
+  <si>
+    <t>"Der Glänzende Storchschnabel besiedelt Staudenfluren, Fels- und Geröllfluren, trockenwarme Waldränder, teils auch Mauern. Wie er auf den Standort in Bottrop gelangte, der sich zwischen Wegschotter und Zierrasen befand, kann nicht geklärt werden. Vielleicht wurden Samen durch Baumaterialien eingeschleppt."</t>
+  </si>
+  <si>
+    <t>"Vor 17 Jahren wurde der Götterbaum (Ailanthus altissima) im Ruhrgebiet noch als „selten“ eingesuft, begünstigt durch die steigenden Temperaturen und die geringe Anfälligkeit gegenüber hier vorkommenden Schädlingen breitet sich der Götterbaum mittlerweile aber merklich aus, und zwar nicht nur in den urbanen Räumen, sondern auch im sich ebenfalls erwärmenden Umland (v. a. entlang von Autobahnen). So ist davon auszugehen, dass die Art gegenüber empfindlicheren Pflanzen noch konkurrenzstärker wird. "</t>
+  </si>
+  <si>
+    <t>"Besonders interessierte hierbei die Gruppe der Salzpflanzen, die ganz offensichtlich durch den Streusalzeinsatz, aber auch durch die lineare Struktur der Autobahn durch den Fernverkehr von der Küste ins Binnenland verdriftet werden. Eine zwar noch recht seltene, aber möglicherweise gerade an Autobahnen und anderen größeren Straßen in Ausbreitung begriffene Art dieser Gruppe ist der Krähenfuß-Wegerich."</t>
+  </si>
+  <si>
+    <t>"Aktuell ist eine Ausbreitung des Klebrigen Alants an Autobahnen und Bundesstraßen im ganzen Bundesgebiet zu beobachten. Ob die Art von dort aus weitere Flächen außerhalb des Ruhrgebietes besiedelt, werden wir zukünftig verfolgen."</t>
+  </si>
+  <si>
+    <t>"Die Erdkröte ist eine der häufigsten Arten im Ruhrgebiet, dabei ist sie vielmehr vom Tod auf der Straße betroffen als viele andere Arten, was mit ihren weiten Wanderungen zwischen Landlebensraum und Laichplatz zusammenhängt. An vielen Stellen im westlichen Ruhrgebiet bemühen sich ehrenamtliche Tier- und Naturschützer*innen, die Tiere vor dem Straßentod zu retten. "</t>
+  </si>
+  <si>
+    <t>"Abseits der landwirtschaftlichen Flächen, vor allem im urbanen Raum, ist das großflächige Mulchen von Straßenbegleitgrün ein weiterer Faktor für die Artenarmut von Grünland, welches hinsichtlich seiner Gesamtfläche ein riesiges Potenzial für die urbane Artenvielfalt mit sich bringt."</t>
+  </si>
+  <si>
+    <t>"In der Gruppe der seltenen heimischen Arten ist der Gefleckte Schierling hervorzuheben, ein Neufund für diesen Abschnitt. Die Art tritt regelmäßig auf Mittelstreifen von Autobahnen oder Schnellstraßen auf und wurde 2010 zwischen Bochum und Essen kartiert. Der Gefleckte Schierling ist jedoch außerhalb von Autobahnen selten und wird in der Roten Liste für das Niederrheinische Tiefland als „gefährdet“ geführt."</t>
+  </si>
+  <si>
+    <t>"Strahlwirkungs- oder Trittsteinkonzept - inzwischen in Fachwelt und Politik eingebürgerte Begriffe - sind erst wenige Jahre alt. Die plakative Bezeichnung Strahlwirkung ist seinerzeit auf Initiative des Deutschen Rates für Landespflege entstanden. Sie beschreibt die positiven Ausstrahlungen eines intakten, naturnahen Gewässerabschnittes auf benachbarte technisch ausgebaute, eingeengte und begradigte Abschnitte."</t>
+  </si>
+  <si>
+    <t>"Einschränkungen der Lebensraumfunktion der Gewässer bestehen dennoch, aufgrund von Veränderungen von Wasserhaushalt und Abflussverhalten und v.a. aufgrund eines massiven Gewässerausbaus zugunsten intensiver Nutzungen. Häufig sind die Gewässer auf ihre Funktion der Wasser und Hochwasserableitung reduziert. Dies spiegelt sich auch in ihren morphologischen Verhältnissen wider: begradigte, tiefer gelegte und eingedeichte Gewässer, fehlende natürliche Auen durch gewässernahe Bebauung oder Nutzung, massive Sohl- oder Ufersicherung, Unterbrechung der Durchgängigkeit durch zahlreiche Querbauwerke mit Rückstauwirkungen und zum Teil mit Wasserkraftnutzung."</t>
+  </si>
+  <si>
+    <t>"Strahlwirkung bedeutet, dass die Umgebung von Gewässern positiv beeinflusst wird, und das geschieht auf zwei Arten: 1) Organismen bewegen sich von gesunden Bereichen zu weniger gesunden. Das ist besonders offensichtlich, wenn die gesunden Bereiche viele Lebewesen haben. 2) Schlechte Lebensbedingungen in einem Bereich werden von guten Bedingungen aus gesunden Gewässern überdeckt. Zum Beispiel, wenn sauberes Wasser oder typischer Schlamm von gesunden Gewässern in einen weniger gesunden Bereich gelangen."</t>
+  </si>
+  <si>
+    <t>"Der Begriff "negative Fern- und Nachbarschaftswirkung" beschreibt, wie ein gesundes Gewässer durch Einflüsse aus benachbarten oder oberhalb gelegenen Gebieten negativ beeinflusst werden kann. Dies kann passieren, wenn schlechte Umweltbedingungen wie Verschmutzung, Ablagerung von Schmutz oder Temperaturveränderungen von außerhalb in das gesunde Gewässer gelangen. Es kann auch vorkommen, dass untypische Organismen aus benachbarten verschlechterten Bereichen in das gesunde Gewässer A4gelangen und dort Probleme verursachen."</t>
   </si>
 </sst>
 </file>
@@ -946,42 +1128,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="129.26953125" customWidth="1"/>
-    <col min="2" max="2" width="31.08984375" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="36.08984375" customWidth="1"/>
+    <col min="1" max="1" width="129.28515625" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="D2">
         <v>0</v>
       </c>
@@ -989,13 +1172,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>132</v>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1004,10 +1187,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="D4">
         <v>0</v>
       </c>
@@ -1015,10 +1199,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="1"/>
       <c r="D5">
         <v>0</v>
       </c>
@@ -1026,10 +1211,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="D6">
         <v>0</v>
       </c>
@@ -1037,10 +1223,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1048,10 +1235,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1059,10 +1247,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="D9">
         <v>0</v>
       </c>
@@ -1070,8 +1259,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -1079,9 +1274,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>82</v>
+    <row r="11" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1090,10 +1289,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="D12">
         <v>0</v>
       </c>
@@ -1101,10 +1301,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="D13">
         <v>0</v>
       </c>
@@ -1112,10 +1313,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="D14">
         <v>0</v>
       </c>
@@ -1123,14 +1325,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
+    <row r="15" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="D15">
         <v>0</v>
       </c>
@@ -1138,14 +1337,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>87</v>
+    <row r="16" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -1155,65 +1370,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D302E7F-3F49-4656-A431-EADBCBB7DC16}">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6328125" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="30.90625" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="110.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="109" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="167" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>142</v>
+    <row r="3" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="128.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1222,172 +1446,292 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
         <v>144</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="110.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="109" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="160" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="86" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{BA64FF9C-0363-4E1A-86C8-9FD10CFDF82C}"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{BA64FF9C-0363-4E1A-86C8-9FD10CFDF82C}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{ECD24173-3896-41FB-93F6-FF29AB55B462}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1395,39 +1739,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="135.6328125" customWidth="1"/>
-    <col min="2" max="2" width="82.81640625" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" customWidth="1"/>
-    <col min="5" max="5" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="135.5703125" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1436,12 +1780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1450,12 +1794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1464,13 +1808,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1479,12 +1823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1493,12 +1837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1507,12 +1851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1521,13 +1865,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1536,13 +1880,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1551,12 +1895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1565,12 +1909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1579,12 +1923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1593,13 +1937,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1608,13 +1952,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1623,40 +1967,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1665,12 +2009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1679,12 +2023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1704,167 +2048,167 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.1796875" customWidth="1"/>
-    <col min="2" max="2" width="73.26953125" customWidth="1"/>
-    <col min="3" max="3" width="49.26953125" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="105.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="231.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="215.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="231.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1873,9 +2217,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1884,15 +2228,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1901,12 +2245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1915,64 +2259,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
   </sheetData>
@@ -1981,44 +2325,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C96751-A673-424F-84AF-C20C0941739C}">
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="128.6328125" customWidth="1"/>
-    <col min="2" max="2" width="77.26953125" customWidth="1"/>
-    <col min="3" max="3" width="35.90625" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="106.7109375" customWidth="1"/>
+    <col min="2" max="2" width="105.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2">
         <v>0</v>
       </c>
@@ -2026,351 +2370,408 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="1"/>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2378,175 +2779,235 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C96751-A673-424F-84AF-C20C0941739C}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60854A22-808A-4E1A-91AE-9BEA74945AD8}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.7265625" customWidth="1"/>
-    <col min="2" max="2" width="105.81640625" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="37.453125" customWidth="1"/>
+    <col min="1" max="1" width="93.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
+    <row r="7" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
+    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
+    <row r="11" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2554,262 +3015,1060 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B9F0DF-3526-4268-8C36-59677EC0C1DD}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="129.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="128.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="89" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="113.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B9" s="1"/>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{D063EEE7-0B4A-4240-BFA8-B6C57415442E}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{F584DA1E-F970-4EEF-8A1A-EE9FC4D6A48B}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{EA5D3F3A-8B1D-461F-BFA2-18F8AF6FCC54}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60854A22-808A-4E1A-91AE-9BEA74945AD8}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B9F0DF-3526-4268-8C36-59677EC0C1DD}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90" style="1" customWidth="1"/>
+    <col min="1" max="1" width="129.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="89.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="89.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{D063EEE7-0B4A-4240-BFA8-B6C57415442E}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{F584DA1E-F970-4EEF-8A1A-EE9FC4D6A48B}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{EA5D3F3A-8B1D-461F-BFA2-18F8AF6FCC54}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794DF495-540A-4416-A570-C2CA3FBB663F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="109.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="86.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.54296875" customWidth="1"/>
+    <col min="1" max="1" width="109.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="220" customHeight="1" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="265.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="132.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/material/texts.xlsx
+++ b/data/material/texts.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\21_404\PROJECT\404-nature-not-found\data\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93682B6E-09D8-469C-9C30-7C222401A4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC1F18-7842-488A-86F5-5083A97D25A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Intro" sheetId="2" r:id="rId1"/>
+    <sheet name="Pferde" sheetId="1" r:id="rId1"/>
     <sheet name="Begriffe" sheetId="4" r:id="rId2"/>
-    <sheet name="Pferde" sheetId="1" r:id="rId3"/>
-    <sheet name="Rezepte" sheetId="10" r:id="rId4"/>
-    <sheet name="Autos" sheetId="5" r:id="rId5"/>
-    <sheet name="Strahlwirkung" sheetId="7" r:id="rId6"/>
-    <sheet name="Emscher" sheetId="3" r:id="rId7"/>
+    <sheet name="Strahlwirkung" sheetId="7" r:id="rId3"/>
+    <sheet name="Emscher" sheetId="3" r:id="rId4"/>
+    <sheet name="Intro" sheetId="2" r:id="rId5"/>
+    <sheet name="Fiktion" sheetId="9" r:id="rId6"/>
+    <sheet name="Autos" sheetId="5" r:id="rId7"/>
     <sheet name="Beschwerde" sheetId="6" r:id="rId8"/>
-    <sheet name="Fiktion" sheetId="9" r:id="rId9"/>
+    <sheet name="Rezepte" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1127,20 +1127,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="129.28515625" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="135.5703125" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,11 +1160,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>66</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -1172,13 +1171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1187,11 +1185,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -1199,11 +1199,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -1211,11 +1214,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -1223,11 +1228,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1235,11 +1242,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1247,11 +1256,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -1259,13 +1271,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1274,13 +1286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1289,11 +1300,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -1301,11 +1314,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D13">
         <v>0</v>
       </c>
@@ -1313,11 +1328,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -1325,11 +1343,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -1337,13 +1358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1352,15 +1372,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -1736,20 +1800,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60854A22-808A-4E1A-91AE-9BEA74945AD8}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="135.5703125" customWidth="1"/>
-    <col min="2" max="2" width="82.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="93.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,10 +1833,804 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="128.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="129.28515625" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="D2">
         <v>0</v>
       </c>
@@ -1780,12 +2638,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>67</v>
-      </c>
+    <row r="3" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1794,13 +2653,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="D4">
         <v>0</v>
       </c>
@@ -1808,14 +2665,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>93</v>
-      </c>
+    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="D5">
         <v>0</v>
       </c>
@@ -1823,13 +2677,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="D6">
         <v>0</v>
       </c>
@@ -1837,13 +2689,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1851,13 +2701,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1865,14 +2713,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="D9">
         <v>0</v>
       </c>
@@ -1880,13 +2725,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1895,12 +2740,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1909,13 +2755,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="D12">
         <v>0</v>
       </c>
@@ -1923,13 +2767,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="D13">
         <v>0</v>
       </c>
@@ -1937,14 +2779,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>98</v>
-      </c>
+    <row r="14" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="D14">
         <v>0</v>
       </c>
@@ -1952,14 +2791,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>97</v>
-      </c>
+    <row r="15" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="D15">
         <v>0</v>
       </c>
@@ -1967,12 +2803,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="16" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1981,59 +2818,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
         <v>0</v>
       </c>
     </row>
@@ -2043,21 +2836,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7AB4E8-874D-432E-A74A-D6E3D309D23E}">
-  <dimension ref="A1:E35"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794DF495-540A-4416-A570-C2CA3FBB663F}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.140625" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="1" max="1" width="109.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2077,40 +2870,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>203</v>
+    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
+    <row r="3" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2119,9 +2912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>75</v>
+    <row r="5" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2130,43 +2926,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
+    <row r="6" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
+    <row r="7" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2175,51 +2968,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="231.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>131</v>
+    <row r="11" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>197</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2228,15 +3024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>131</v>
+    <row r="13" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2245,86 +3038,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
+        <v>198</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
+    <row r="15" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C96751-A673-424F-84AF-C20C0941739C}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -2772,799 +3577,6 @@
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60854A22-808A-4E1A-91AE-9BEA74945AD8}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="93.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" s="1"/>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="128.5703125" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3782,20 +3794,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794DF495-540A-4416-A570-C2CA3FBB663F}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7AB4E8-874D-432E-A74A-D6E3D309D23E}">
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="109.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="1" max="1" width="105.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3815,40 +3827,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>179</v>
+    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>193</v>
+    <row r="3" spans="1:5" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3857,12 +3869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
+    <row r="5" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3871,40 +3880,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
+    <row r="6" spans="1:5" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>182</v>
+    <row r="7" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" t="s">
-        <v>184</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3913,54 +3925,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="231.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>182</v>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3969,12 +3978,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>182</v>
+    <row r="13" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3983,92 +3995,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
